--- a/serverUploads/Химия часть 1.xlsx
+++ b/serverUploads/Химия часть 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="ПробаПера1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -3490,7 +3490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3500,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="4">
-        <v>1798.5</v>
+        <v>1798</v>
       </c>
       <c r="G9" t="s">
         <v>376</v>
